--- a/src/main/resources/xlsx/payment_list.xlsx
+++ b/src/main/resources/xlsx/payment_list.xlsx
@@ -6,48 +6,63 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Payment Methods" r:id="rId3" sheetId="1"/>
+    <sheet name="Menu Items" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Name/Email</t>
-  </si>
-  <si>
-    <t>Number/Password</t>
-  </si>
-  <si>
-    <t>CVC</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>CreditDebit</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>9876543210987654</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>01/22</t>
-  </si>
-  <si>
-    <t>MasterCard</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>FRIES</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>3PC set meal</t>
+  </si>
+  <si>
+    <t>set meal</t>
+  </si>
+  <si>
+    <t>CAJUN FISH</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>burger</t>
+  </si>
+  <si>
+    <t>COLE SLAW</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>chicken nugget</t>
+  </si>
+  <si>
+    <t>pepsi</t>
+  </si>
+  <si>
+    <t>drink</t>
   </si>
 </sst>
 </file>
@@ -92,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -111,31 +126,117 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.399999618530273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/xlsx/payment_list.xlsx
+++ b/src/main/resources/xlsx/payment_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34972387-22C2-41AE-B138-14EE2FDF3E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F01955C-055F-4D54-B72F-2FD5524F5395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19785" yWindow="1935" windowWidth="19605" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23970" yWindow="2715" windowWidth="19605" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PaymentMethods" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -40,10 +40,7 @@
     <t>VISA</t>
   </si>
   <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>Credit</t>
+    <t>creditdebit</t>
   </si>
 </sst>
 </file>
@@ -395,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,14 +432,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
